--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf18-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf18-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf18</t>
+  </si>
+  <si>
+    <t>Fgfr2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf18</t>
-  </si>
-  <si>
-    <t>Fgfr2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G2">
-        <v>0.175392</v>
+        <v>10.71557066666667</v>
       </c>
       <c r="H2">
-        <v>0.526176</v>
+        <v>32.146712</v>
       </c>
       <c r="I2">
-        <v>0.01507461242125648</v>
+        <v>0.9375025736567436</v>
       </c>
       <c r="J2">
-        <v>0.01507461242125648</v>
+        <v>0.9375025736567436</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N2">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q2">
-        <v>0.08544472675199999</v>
+        <v>0.60017911304</v>
       </c>
       <c r="R2">
-        <v>0.7690025407679999</v>
+        <v>5.401612017360001</v>
       </c>
       <c r="S2">
-        <v>0.002885971940621689</v>
+        <v>0.02541145502867548</v>
       </c>
       <c r="T2">
-        <v>0.00288597194062169</v>
+        <v>0.02541145502867548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G3">
-        <v>0.175392</v>
+        <v>10.71557066666667</v>
       </c>
       <c r="H3">
-        <v>0.526176</v>
+        <v>32.146712</v>
       </c>
       <c r="I3">
-        <v>0.01507461242125648</v>
+        <v>0.9375025736567436</v>
       </c>
       <c r="J3">
-        <v>0.01507461242125648</v>
+        <v>0.9375025736567436</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.864751</v>
       </c>
       <c r="N3">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O3">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P3">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q3">
-        <v>0.3270624073919999</v>
+        <v>19.98187111623733</v>
       </c>
       <c r="R3">
-        <v>2.943561666527999</v>
+        <v>179.836840046136</v>
       </c>
       <c r="S3">
-        <v>0.01104682484742568</v>
+        <v>0.8460281409779972</v>
       </c>
       <c r="T3">
-        <v>0.01104682484742568</v>
+        <v>0.8460281409779973</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G4">
-        <v>0.175392</v>
+        <v>10.71557066666667</v>
       </c>
       <c r="H4">
-        <v>0.526176</v>
+        <v>32.146712</v>
       </c>
       <c r="I4">
-        <v>0.01507461242125648</v>
+        <v>0.9375025736567436</v>
       </c>
       <c r="J4">
-        <v>0.01507461242125648</v>
+        <v>0.9375025736567436</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N4">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O4">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P4">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q4">
-        <v>0.03380563872</v>
+        <v>1.560304960344</v>
       </c>
       <c r="R4">
-        <v>0.30425074848</v>
+        <v>14.042744643096</v>
       </c>
       <c r="S4">
-        <v>0.001141815633209108</v>
+        <v>0.0660629776500708</v>
       </c>
       <c r="T4">
-        <v>0.001141815633209108</v>
+        <v>0.0660629776500708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.71557066666667</v>
+        <v>0.71434</v>
       </c>
       <c r="H5">
-        <v>32.146712</v>
+        <v>2.14302</v>
       </c>
       <c r="I5">
-        <v>0.9209831387553875</v>
+        <v>0.06249742634325634</v>
       </c>
       <c r="J5">
-        <v>0.9209831387553876</v>
+        <v>0.06249742634325634</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N5">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O5">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P5">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q5">
-        <v>5.220243840112889</v>
+        <v>0.0400101834</v>
       </c>
       <c r="R5">
-        <v>46.982194561016</v>
+        <v>0.3600916506</v>
       </c>
       <c r="S5">
-        <v>0.1763183969151891</v>
+        <v>0.001694022591036748</v>
       </c>
       <c r="T5">
-        <v>0.1763183969151891</v>
+        <v>0.001694022591036749</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>10.71557066666667</v>
+        <v>0.71434</v>
       </c>
       <c r="H6">
-        <v>32.146712</v>
+        <v>2.14302</v>
       </c>
       <c r="I6">
-        <v>0.9209831387553875</v>
+        <v>0.06249742634325634</v>
       </c>
       <c r="J6">
-        <v>0.9209831387553876</v>
+        <v>0.06249742634325634</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>1.864751</v>
       </c>
       <c r="N6">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O6">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P6">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q6">
-        <v>19.98187111623733</v>
+        <v>1.33206622934</v>
       </c>
       <c r="R6">
-        <v>179.836840046136</v>
+        <v>11.98859606406</v>
       </c>
       <c r="S6">
-        <v>0.6749055389919673</v>
+        <v>0.05639939869056181</v>
       </c>
       <c r="T6">
-        <v>0.6749055389919674</v>
+        <v>0.05639939869056182</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>10.71557066666667</v>
+        <v>0.71434</v>
       </c>
       <c r="H7">
-        <v>32.146712</v>
+        <v>2.14302</v>
       </c>
       <c r="I7">
-        <v>0.9209831387553875</v>
+        <v>0.06249742634325634</v>
       </c>
       <c r="J7">
-        <v>0.9209831387553876</v>
+        <v>0.06249742634325634</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N7">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O7">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P7">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q7">
-        <v>2.065354808862222</v>
+        <v>0.10401576174</v>
       </c>
       <c r="R7">
-        <v>18.58819327976</v>
+        <v>0.9361418556600001</v>
       </c>
       <c r="S7">
-        <v>0.06975920284823109</v>
+        <v>0.004404005061657775</v>
       </c>
       <c r="T7">
-        <v>0.0697592028482311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.7439633333333333</v>
-      </c>
-      <c r="H8">
-        <v>2.23189</v>
-      </c>
-      <c r="I8">
-        <v>0.06394224882335593</v>
-      </c>
-      <c r="J8">
-        <v>0.06394224882335593</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.4871643333333333</v>
-      </c>
-      <c r="N8">
-        <v>1.461493</v>
-      </c>
-      <c r="O8">
-        <v>0.1914458468300136</v>
-      </c>
-      <c r="P8">
-        <v>0.1914458468300136</v>
-      </c>
-      <c r="Q8">
-        <v>0.3624324013077778</v>
-      </c>
-      <c r="R8">
-        <v>3.26189161177</v>
-      </c>
-      <c r="S8">
-        <v>0.01224147797420282</v>
-      </c>
-      <c r="T8">
-        <v>0.01224147797420282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.7439633333333333</v>
-      </c>
-      <c r="H9">
-        <v>2.23189</v>
-      </c>
-      <c r="I9">
-        <v>0.06394224882335593</v>
-      </c>
-      <c r="J9">
-        <v>0.06394224882335593</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.864751</v>
-      </c>
-      <c r="N9">
-        <v>5.594252999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.7328098752209856</v>
-      </c>
-      <c r="P9">
-        <v>0.7328098752209857</v>
-      </c>
-      <c r="Q9">
-        <v>1.387306369796667</v>
-      </c>
-      <c r="R9">
-        <v>12.48575732817</v>
-      </c>
-      <c r="S9">
-        <v>0.04685751138159268</v>
-      </c>
-      <c r="T9">
-        <v>0.04685751138159269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.7439633333333333</v>
-      </c>
-      <c r="H10">
-        <v>2.23189</v>
-      </c>
-      <c r="I10">
-        <v>0.06394224882335593</v>
-      </c>
-      <c r="J10">
-        <v>0.06394224882335593</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.1927433333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.57823</v>
-      </c>
-      <c r="O10">
-        <v>0.07574427794900063</v>
-      </c>
-      <c r="P10">
-        <v>0.07574427794900064</v>
-      </c>
-      <c r="Q10">
-        <v>0.1433939727444445</v>
-      </c>
-      <c r="R10">
-        <v>1.2905457547</v>
-      </c>
-      <c r="S10">
-        <v>0.00484325946756043</v>
-      </c>
-      <c r="T10">
-        <v>0.004843259467560431</v>
+        <v>0.004404005061657775</v>
       </c>
     </row>
   </sheetData>
